--- a/woorden.xlsx
+++ b/woorden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdereu01\Dropbox\Zweeds\00_Python_Vocabulary\_SE_vocabulary Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B2F3E-84DC-445D-BD2C-30BE5E04D436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945A496-A861-4CCD-8544-30814A5728F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11775" yWindow="1905" windowWidth="24375" windowHeight="17430" xr2:uid="{64A8F6EC-902F-422E-8D44-28415E1DACB0}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>een zetel</t>
   </si>
   <si>
-    <t>en fåtolj</t>
-  </si>
-  <si>
     <t>een stoel</t>
   </si>
   <si>
@@ -404,10 +401,13 @@
     <t>negen</t>
   </si>
   <si>
-    <t>tie</t>
-  </si>
-  <si>
     <t>tien</t>
+  </si>
+  <si>
+    <t>tio</t>
+  </si>
+  <si>
+    <t>en fåtölj</t>
   </si>
 </sst>
 </file>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0197511-F367-4B34-9369-7423CD9FEB1C}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1124,34 +1124,34 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1172,26 +1172,26 @@
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1204,26 +1204,26 @@
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,79 +1231,79 @@
         <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/woorden.xlsx
+++ b/woorden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdereu01\Dropbox\Zweeds\00_Python_Vocabulary\_SE_vocabulary Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945A496-A861-4CCD-8544-30814A5728F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5060A-9252-44BB-AFE1-A6B1602CA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11775" yWindow="1905" windowWidth="24375" windowHeight="17430" xr2:uid="{64A8F6EC-902F-422E-8D44-28415E1DACB0}"/>
+    <workbookView xWindow="10260" yWindow="2145" windowWidth="24375" windowHeight="17430" xr2:uid="{64A8F6EC-902F-422E-8D44-28415E1DACB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulaire" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>Zweeds</t>
   </si>
@@ -408,6 +408,216 @@
   </si>
   <si>
     <t>en fåtölj</t>
+  </si>
+  <si>
+    <t>bredvid</t>
+  </si>
+  <si>
+    <t>naast</t>
+  </si>
+  <si>
+    <t>att komma</t>
+  </si>
+  <si>
+    <t>komen</t>
+  </si>
+  <si>
+    <t>att komma från</t>
+  </si>
+  <si>
+    <t>komen uit</t>
+  </si>
+  <si>
+    <t>att tala</t>
+  </si>
+  <si>
+    <t>spreken</t>
+  </si>
+  <si>
+    <t>svensk</t>
+  </si>
+  <si>
+    <t>svenska</t>
+  </si>
+  <si>
+    <t>Zweedse taal</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Italien</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>italienska</t>
+  </si>
+  <si>
+    <t>italiaans</t>
+  </si>
+  <si>
+    <t>mycket</t>
+  </si>
+  <si>
+    <t>zeer, heel</t>
+  </si>
+  <si>
+    <t>bra</t>
+  </si>
+  <si>
+    <t>goed</t>
+  </si>
+  <si>
+    <t>att åka</t>
+  </si>
+  <si>
+    <t>reizen, gaan</t>
+  </si>
+  <si>
+    <t>en semester</t>
+  </si>
+  <si>
+    <t>een vakantie</t>
+  </si>
+  <si>
+    <t>att hälsa på</t>
+  </si>
+  <si>
+    <t>bezoeken</t>
+  </si>
+  <si>
+    <t>en mamma</t>
+  </si>
+  <si>
+    <t>een moeder</t>
+  </si>
+  <si>
+    <t>en pappa</t>
+  </si>
+  <si>
+    <t>een vader</t>
+  </si>
+  <si>
+    <t>att besöka</t>
+  </si>
+  <si>
+    <t>ett centrum</t>
+  </si>
+  <si>
+    <t>een centrum</t>
+  </si>
+  <si>
+    <t>att se</t>
+  </si>
+  <si>
+    <t>zien</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>att ta</t>
+  </si>
+  <si>
+    <t>nemen</t>
+  </si>
+  <si>
+    <t>att ta en kurs</t>
+  </si>
+  <si>
+    <t>een cursus volgen</t>
+  </si>
+  <si>
+    <t>en kurs i italienska</t>
+  </si>
+  <si>
+    <t>een cursus italiaans</t>
+  </si>
+  <si>
+    <t>att vilja</t>
+  </si>
+  <si>
+    <t>willen</t>
+  </si>
+  <si>
+    <t>att lära</t>
+  </si>
+  <si>
+    <t>leren</t>
+  </si>
+  <si>
+    <t>ett språk</t>
+  </si>
+  <si>
+    <t>een taal</t>
+  </si>
+  <si>
+    <t>så att</t>
+  </si>
+  <si>
+    <t>zodat</t>
+  </si>
+  <si>
+    <t>att kunna</t>
+  </si>
+  <si>
+    <t>kunnen</t>
+  </si>
+  <si>
+    <t>att samtala</t>
+  </si>
+  <si>
+    <t>spreken, een gesprek voeren</t>
+  </si>
+  <si>
+    <t>föräldrar</t>
+  </si>
+  <si>
+    <t>ouders</t>
+  </si>
+  <si>
+    <t>bättre</t>
+  </si>
+  <si>
+    <t>beter</t>
+  </si>
+  <si>
+    <t>ett äpple</t>
+  </si>
+  <si>
+    <t>een appel</t>
+  </si>
+  <si>
+    <t>en cykel</t>
+  </si>
+  <si>
+    <t>een fiets</t>
+  </si>
+  <si>
+    <t>ett fönster</t>
+  </si>
+  <si>
+    <t>een venster</t>
+  </si>
+  <si>
+    <t>ett tecken</t>
+  </si>
+  <si>
+    <t>een teken</t>
+  </si>
+  <si>
+    <t>ett museum</t>
+  </si>
+  <si>
+    <t>een museum</t>
   </si>
 </sst>
 </file>
@@ -808,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0197511-F367-4B34-9369-7423CD9FEB1C}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1314,22 +1524,295 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
     </row>
     <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/woorden.xlsx
+++ b/woorden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdereu01\Dropbox\Zweeds\00_Python_Vocabulary\_SE_vocabulary Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5060A-9252-44BB-AFE1-A6B1602CA1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB98961-F293-4216-BDEA-173FA353A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="2145" windowWidth="24375" windowHeight="17430" xr2:uid="{64A8F6EC-902F-422E-8D44-28415E1DACB0}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>kijken naar</t>
   </si>
   <si>
-    <t xml:space="preserve">en TV </t>
-  </si>
-  <si>
     <t>een televisie</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>een museum</t>
+  </si>
+  <si>
+    <t>en TV</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0197511-F367-4B34-9369-7423CD9FEB1C}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>83</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1414,26 +1414,26 @@
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,124 +1441,124 @@
         <v>32</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>0</v>
@@ -1566,250 +1566,250 @@
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/woorden.xlsx
+++ b/woorden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdereu01\Dropbox\Zweeds\00_Python_Vocabulary\_SE_vocabulary Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB98961-F293-4216-BDEA-173FA353A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7629D85E-3D8F-4FCA-AA12-21860110AEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="2145" windowWidth="24375" windowHeight="17430" xr2:uid="{64A8F6EC-902F-422E-8D44-28415E1DACB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="296">
   <si>
     <t>Zweeds</t>
   </si>
@@ -618,6 +618,312 @@
   </si>
   <si>
     <t>en TV</t>
+  </si>
+  <si>
+    <t>ett år</t>
+  </si>
+  <si>
+    <t>een jaar</t>
+  </si>
+  <si>
+    <t>gammal</t>
+  </si>
+  <si>
+    <t>oud</t>
+  </si>
+  <si>
+    <t>åtta år gamal</t>
+  </si>
+  <si>
+    <t>acht jaar oud</t>
+  </si>
+  <si>
+    <t>att gå</t>
+  </si>
+  <si>
+    <t>gaan</t>
+  </si>
+  <si>
+    <t>en grundskola</t>
+  </si>
+  <si>
+    <t>een basisschool</t>
+  </si>
+  <si>
+    <t>att gå i grundskola</t>
+  </si>
+  <si>
+    <t>naar de basisschool gaan</t>
+  </si>
+  <si>
+    <t>att cykla</t>
+  </si>
+  <si>
+    <t>fietsen</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>naar school gaan</t>
+  </si>
+  <si>
+    <t>naar</t>
+  </si>
+  <si>
+    <t>att gå till skola</t>
+  </si>
+  <si>
+    <t>varje</t>
+  </si>
+  <si>
+    <t>elke</t>
+  </si>
+  <si>
+    <t>morgon</t>
+  </si>
+  <si>
+    <t>ochtend</t>
+  </si>
+  <si>
+    <t>efter</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>att spela</t>
+  </si>
+  <si>
+    <t>en fotboll</t>
+  </si>
+  <si>
+    <t>een voetbal</t>
+  </si>
+  <si>
+    <t>att spela fotboll</t>
+  </si>
+  <si>
+    <t>voetballen</t>
+  </si>
+  <si>
+    <t>att stå</t>
+  </si>
+  <si>
+    <t>staan</t>
+  </si>
+  <si>
+    <t>en säng</t>
+  </si>
+  <si>
+    <t>een bed</t>
+  </si>
+  <si>
+    <t>en garderob</t>
+  </si>
+  <si>
+    <t>een kleerkast</t>
+  </si>
+  <si>
+    <t>ett skrivbord</t>
+  </si>
+  <si>
+    <t>een bureau</t>
+  </si>
+  <si>
+    <t>att liga</t>
+  </si>
+  <si>
+    <t>liggen</t>
+  </si>
+  <si>
+    <t>en penna</t>
+  </si>
+  <si>
+    <t>een pen</t>
+  </si>
+  <si>
+    <t>många</t>
+  </si>
+  <si>
+    <t>veel</t>
+  </si>
+  <si>
+    <t>ett papper</t>
+  </si>
+  <si>
+    <t>een papier</t>
+  </si>
+  <si>
+    <t>en kudde</t>
+  </si>
+  <si>
+    <t>een kussen</t>
+  </si>
+  <si>
+    <t>att hänga</t>
+  </si>
+  <si>
+    <t>hangen</t>
+  </si>
+  <si>
+    <t>kläder</t>
+  </si>
+  <si>
+    <t>kleding</t>
+  </si>
+  <si>
+    <t>en blomma</t>
+  </si>
+  <si>
+    <t>een bloem</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>en blomkruka</t>
+  </si>
+  <si>
+    <t>een bloempot</t>
+  </si>
+  <si>
+    <t>gärna</t>
+  </si>
+  <si>
+    <t>graag</t>
+  </si>
+  <si>
+    <t>att få</t>
+  </si>
+  <si>
+    <t>mogen</t>
+  </si>
+  <si>
+    <t>inte</t>
+  </si>
+  <si>
+    <t>niet</t>
+  </si>
+  <si>
+    <t>förrän</t>
+  </si>
+  <si>
+    <t>voor</t>
+  </si>
+  <si>
+    <t>äldre</t>
+  </si>
+  <si>
+    <t>ouder</t>
+  </si>
+  <si>
+    <t>bara</t>
+  </si>
+  <si>
+    <t>slechts</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>zoals</t>
+  </si>
+  <si>
+    <t>i stället</t>
+  </si>
+  <si>
+    <t>in plaats van</t>
+  </si>
+  <si>
+    <t>ett daghem</t>
+  </si>
+  <si>
+    <t>ett dagis</t>
+  </si>
+  <si>
+    <t>een kinderdagverblijf</t>
+  </si>
+  <si>
+    <t>en nalle</t>
+  </si>
+  <si>
+    <t>een teddybeer</t>
+  </si>
+  <si>
+    <t>en saga</t>
+  </si>
+  <si>
+    <t>een verhaal</t>
+  </si>
+  <si>
+    <t>på kvällen</t>
+  </si>
+  <si>
+    <t>s avonds</t>
+  </si>
+  <si>
+    <t>favoritbok</t>
+  </si>
+  <si>
+    <t>favoriete boek</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>door, van</t>
+  </si>
+  <si>
+    <t>en gång</t>
+  </si>
+  <si>
+    <t>een keer</t>
+  </si>
+  <si>
+    <t>ett arbetsrum</t>
+  </si>
+  <si>
+    <t>een werkkamer</t>
+  </si>
+  <si>
+    <t>ett barnrum</t>
+  </si>
+  <si>
+    <t>een kinderkamer</t>
+  </si>
+  <si>
+    <t>en hall</t>
+  </si>
+  <si>
+    <t>een hal</t>
+  </si>
+  <si>
+    <t>en källare</t>
+  </si>
+  <si>
+    <t>een kelder</t>
+  </si>
+  <si>
+    <t>en matvrå</t>
+  </si>
+  <si>
+    <t>een eetkamer</t>
+  </si>
+  <si>
+    <t>en tvätstuga</t>
+  </si>
+  <si>
+    <t>een washok</t>
+  </si>
+  <si>
+    <t>en vind</t>
+  </si>
+  <si>
+    <t>een zolder</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0197511-F367-4B34-9369-7423CD9FEB1C}">
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1812,31 +2118,426 @@
         <v>192</v>
       </c>
     </row>
+    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="6"/>
+      <c r="A129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
+      <c r="A135" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
     </row>
-    <row r="158" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
     </row>
     <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
